--- a/biology/Zoologie/Barbie_et_ses_sœurs___À_la_recherche_des_chiots/Barbie_et_ses_sœurs___À_la_recherche_des_chiots.xlsx
+++ b/biology/Zoologie/Barbie_et_ses_sœurs___À_la_recherche_des_chiots/Barbie_et_ses_sœurs___À_la_recherche_des_chiots.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbie_et_ses_s%C5%93urs_:_%C3%80_la_recherche_des_chiots</t>
+          <t>Barbie_et_ses_sœurs_:_À_la_recherche_des_chiots</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbie et ses sœurs : À la recherche des chiots (Barbie and Her Sisters in a Puppy Chase) est le 34e long-métrage d'animation qui met en scène le personnage de Barbie, ainsi que le quatrième film de la série Barbie et ses sœurs après Barbie : Un Merveilleux Noël, Barbie et ses sœurs : Au Club Hippique et Barbie et ses sœurs : La Grande Aventure des chiots. Le film est sorti en DVD le 8 novembre 2016 et a été réalisé par Conrad Helten et Michael Goguen.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbie_et_ses_s%C5%93urs_:_%C3%80_la_recherche_des_chiots</t>
+          <t>Barbie_et_ses_sœurs_:_À_la_recherche_des_chiots</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbie, Skipper, Stacie et Chelsea se rende sur une île pour le concours de danse de Chelsea. Barbie en a profité pour organiser une surprise pour ses sœurs : un spectacle hippique dans un parc. Le seul véhicule à disposition est une voiturette de golf, ce qui les obligent à envoyer leurs bagages directement à l’hôtel tandis qu’elles partent, accompagnée des chiots. Une fois au parc, tandis que les filles regardent le spectacle de Vivian et Marco, les chiots explorent et entrent dans la caravane d’un caniche de concours, Archibald IIIe du nom. Malheureusement, une fois le spectacle fini, les chiots se retrouvent embarqués avec toute la caravane de Vivian et Marco. Barbie et ses sœurs s’en rendent compte et tentent de les suivre avec leur voiturette.Malheureusement, celle-ci se retrouve coincée et les filles, condamnées à dormir à la belle étoile. Le séjour devient alors une course contre la montre pour essayer de retrouver les chiots et arriver à temps au concours de danse de Chelsea, qui se montre extrêmement stressée.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barbie_et_ses_s%C5%93urs_:_%C3%80_la_recherche_des_chiots</t>
+          <t>Barbie_et_ses_sœurs_:_À_la_recherche_des_chiots</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Barbie and Her Sisters in a Puppy Chase
 Titre français : Barbie et ses sœurs : À la recherche des chiots
@@ -560,8 +576,8 @@
 Durée : 75 minutes
 Dates de sortie :
  États-Unis : 18 octobre 2016 (DVD)
- France : 8 novembre 2016 (DVD)[1]
-Sources : Générique du DVD, IMDb[2]</t>
+ France : 8 novembre 2016 (DVD)
+Sources : Générique du DVD, IMDb</t>
         </is>
       </c>
     </row>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barbie_et_ses_s%C5%93urs_:_%C3%80_la_recherche_des_chiots</t>
+          <t>Barbie_et_ses_sœurs_:_À_la_recherche_des_chiots</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sources : Générique du DVD</t>
         </is>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Barbie_et_ses_s%C5%93urs_:_%C3%80_la_recherche_des_chiots</t>
+          <t>Barbie_et_ses_sœurs_:_À_la_recherche_des_chiots</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,9 +637,11 @@
           <t>Chanson du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La chanson générique du film est disponible en single[3]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La chanson générique du film est disponible en single. 
 Ce film réutilise également une chanson de Barbie : Aventure dans les étoiles pour sa bande originale :
 Let Your Hair Down – The Math Club feat. Leo Soul</t>
         </is>
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Barbie_et_ses_s%C5%93urs_:_%C3%80_la_recherche_des_chiots</t>
+          <t>Barbie_et_ses_sœurs_:_À_la_recherche_des_chiots</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,7 +671,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée en 1959, la Poupée Barbie est à l'origine de nombreux produits dérivés. Elle a également inspiré plusieurs films d’animation. Barbie et ses sœurs : A la recherche des chiots est sorti la même année que Barbie : Agents secrets et Barbie : Aventure dans les étoiles, et sera suivi en 2017 par Barbie : Héroïne de jeu vidéo.
 </t>
